--- a/output/GARDE_26179685000179.xlsx
+++ b/output/GARDE_26179685000179.xlsx
@@ -922,10 +922,10 @@
         <v>44165</v>
       </c>
       <c r="B49">
-        <v>0.3158535</v>
+        <v>0.3158814000000001</v>
       </c>
       <c r="C49">
-        <v>0.01133443219315988</v>
+        <v>0.01135587548502959</v>
       </c>
     </row>
   </sheetData>

--- a/output/GARDE_26179685000179.xlsx
+++ b/output/GARDE_26179685000179.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>GARDE DARTAGNAN ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,546 +383,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42735</v>
       </c>
       <c r="B2">
-        <v>-7.500000000004725e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42766</v>
       </c>
       <c r="B3">
-        <v>0.01772079999999998</v>
-      </c>
-      <c r="C3">
         <v>0.01779713478510891</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42794</v>
       </c>
       <c r="B4">
-        <v>0.03136369999999999</v>
-      </c>
-      <c r="C4">
         <v>0.01340534653512049</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42825</v>
       </c>
       <c r="B5">
-        <v>0.04497050000000002</v>
-      </c>
-      <c r="C5">
         <v>0.01319301813705498</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42855</v>
       </c>
       <c r="B6">
-        <v>0.0523982999999999</v>
-      </c>
-      <c r="C6">
         <v>0.007108143244235032</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42886</v>
       </c>
       <c r="B7">
-        <v>0.06374930000000001</v>
-      </c>
-      <c r="C7">
         <v>0.01078584030399909</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42916</v>
       </c>
       <c r="B8">
-        <v>0.08041849999999995</v>
-      </c>
-      <c r="C8">
         <v>0.01567023357853192</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42947</v>
       </c>
       <c r="B9">
-        <v>0.1004288</v>
-      </c>
-      <c r="C9">
         <v>0.01852087871505348</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42978</v>
       </c>
       <c r="B10">
-        <v>0.1168404999999999</v>
-      </c>
-      <c r="C10">
         <v>0.01491391355806027</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43008</v>
       </c>
       <c r="B11">
-        <v>0.1360994</v>
-      </c>
-      <c r="C11">
         <v>0.0172440917033363</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43039</v>
       </c>
       <c r="B12">
-        <v>0.1289876000000001</v>
-      </c>
-      <c r="C12">
         <v>-0.006259839587979599</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43069</v>
       </c>
       <c r="B13">
-        <v>0.1307381000000001</v>
-      </c>
-      <c r="C13">
         <v>0.001550504186228485</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43100</v>
       </c>
       <c r="B14">
-        <v>0.1457854000000001</v>
-      </c>
-      <c r="C14">
         <v>0.01330750241811085</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43131</v>
       </c>
       <c r="B15">
-        <v>0.1609645</v>
-      </c>
-      <c r="C15">
         <v>0.01324776873575084</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43159</v>
       </c>
       <c r="B16">
-        <v>0.1693249999999999</v>
-      </c>
-      <c r="C16">
         <v>0.007201339920385186</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43190</v>
       </c>
       <c r="B17">
-        <v>0.1782283</v>
-      </c>
-      <c r="C17">
         <v>0.007614050841297404</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43220</v>
       </c>
       <c r="B18">
-        <v>0.1682622</v>
-      </c>
-      <c r="C18">
         <v>-0.008458547464867405</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43251</v>
       </c>
       <c r="B19">
-        <v>0.1335474999999999</v>
-      </c>
-      <c r="C19">
         <v>-0.02971481915617924</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43281</v>
       </c>
       <c r="B20">
-        <v>0.1440205000000001</v>
-      </c>
-      <c r="C20">
         <v>0.009239136427895867</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43312</v>
       </c>
       <c r="B21">
-        <v>0.1453352999999999</v>
-      </c>
-      <c r="C21">
         <v>0.001149280104683292</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43343</v>
       </c>
       <c r="B22">
-        <v>0.1395744999999999</v>
-      </c>
-      <c r="C22">
         <v>-0.005029793458736553</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43373</v>
       </c>
       <c r="B23">
-        <v>0.1468247</v>
-      </c>
-      <c r="C23">
         <v>0.006362199224359655</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43404</v>
       </c>
       <c r="B24">
-        <v>0.1652001999999999</v>
-      </c>
-      <c r="C24">
         <v>0.01602293707137625</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43434</v>
       </c>
       <c r="B25">
-        <v>0.1526147</v>
-      </c>
-      <c r="C25">
         <v>-0.01080114816320832</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43465</v>
       </c>
       <c r="B26">
-        <v>0.1653340000000001</v>
-      </c>
-      <c r="C26">
         <v>0.01103517072964633</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43496</v>
       </c>
       <c r="B27">
-        <v>0.2056753</v>
-      </c>
-      <c r="C27">
         <v>0.03461780056189889</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43524</v>
       </c>
       <c r="B28">
-        <v>0.2042109999999999</v>
-      </c>
-      <c r="C28">
         <v>-0.00121450609463436</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43555</v>
       </c>
       <c r="B29">
-        <v>0.1912062999999999</v>
-      </c>
-      <c r="C29">
         <v>-0.01079935326948511</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43585</v>
       </c>
       <c r="B30">
-        <v>0.1951878</v>
-      </c>
-      <c r="C30">
         <v>0.00334241012660863</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43616</v>
       </c>
       <c r="B31">
-        <v>0.2000759999999999</v>
-      </c>
-      <c r="C31">
         <v>0.004089901185403644</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43646</v>
       </c>
       <c r="B32">
-        <v>0.2251908</v>
-      </c>
-      <c r="C32">
         <v>0.02092767458060996</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43677</v>
       </c>
       <c r="B33">
-        <v>0.2526046</v>
-      </c>
-      <c r="C33">
         <v>0.02237512720467705</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43708</v>
       </c>
       <c r="B34">
-        <v>0.2385155999999999</v>
-      </c>
-      <c r="C34">
         <v>-0.01124776326064902</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43738</v>
       </c>
       <c r="B35">
-        <v>0.2454111000000001</v>
-      </c>
-      <c r="C35">
         <v>0.005567551995308007</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43769</v>
       </c>
       <c r="B36">
-        <v>0.2675597999999999</v>
-      </c>
-      <c r="C36">
         <v>0.01778424810891743</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43799</v>
       </c>
       <c r="B37">
-        <v>0.2529675</v>
-      </c>
-      <c r="C37">
         <v>-0.01151211958599496</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43830</v>
       </c>
       <c r="B38">
-        <v>0.2939084999999999</v>
-      </c>
-      <c r="C38">
         <v>0.03267522900633879</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43861</v>
       </c>
       <c r="B39">
-        <v>0.2921092999999999</v>
-      </c>
-      <c r="C39">
         <v>-0.001390515635379175</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43890</v>
       </c>
       <c r="B40">
-        <v>0.2775181</v>
-      </c>
-      <c r="C40">
         <v>-0.01129254313083261</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43921</v>
       </c>
       <c r="B41">
-        <v>0.2380853000000001</v>
-      </c>
-      <c r="C41">
         <v>-0.03086672509767174</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43951</v>
       </c>
       <c r="B42">
-        <v>0.2613714</v>
-      </c>
-      <c r="C42">
         <v>0.01880815481776588</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43982</v>
       </c>
       <c r="B43">
-        <v>0.2752399000000001</v>
-      </c>
-      <c r="C43">
         <v>0.01099477917447644</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>44012</v>
       </c>
       <c r="B44">
-        <v>0.3071317</v>
-      </c>
-      <c r="C44">
         <v>0.02500847095515124</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>44043</v>
       </c>
       <c r="B45">
-        <v>0.3417958000000001</v>
-      </c>
-      <c r="C45">
         <v>0.02651920996178125</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>44074</v>
       </c>
       <c r="B46">
-        <v>0.3339087000000001</v>
-      </c>
-      <c r="C46">
         <v>-0.005878018100816895</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>44104</v>
       </c>
       <c r="B47">
-        <v>0.291714</v>
-      </c>
-      <c r="C47">
         <v>-0.03163237483944747</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>44135</v>
       </c>
       <c r="B48">
-        <v>0.3011062</v>
-      </c>
-      <c r="C48">
         <v>0.007271114194008943</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>44165</v>
       </c>
       <c r="B49">
-        <v>0.3158814000000001</v>
-      </c>
-      <c r="C49">
-        <v>0.01135587548502959</v>
+        <v>0.008673849990108451</v>
       </c>
     </row>
   </sheetData>
